--- a/special.xlsx
+++ b/special.xlsx
@@ -1,69 +1,497 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>宫俊辰</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>韩涵</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>黄锡泽</t>
+  </si>
+  <si>
+    <t>刘子渝</t>
+  </si>
+  <si>
+    <t>陈奕璇</t>
+  </si>
+  <si>
+    <t>宋文瀚</t>
+  </si>
+  <si>
+    <t>路桓铭</t>
+  </si>
+  <si>
+    <t>杨知让</t>
+  </si>
+  <si>
+    <t>张世博</t>
+  </si>
+  <si>
+    <t>李至轩</t>
+  </si>
+  <si>
+    <t>李轩</t>
+  </si>
+  <si>
+    <t>李富阳</t>
+  </si>
+  <si>
+    <t>李欣鑫</t>
+  </si>
+  <si>
+    <t>马雪</t>
+  </si>
+  <si>
+    <t>刘子萌</t>
+  </si>
+  <si>
+    <t>刘雨馨</t>
+  </si>
+  <si>
+    <t>丁玥瑶</t>
+  </si>
+  <si>
+    <t>唐浩然</t>
+  </si>
+  <si>
+    <t>丁力</t>
+  </si>
+  <si>
+    <t>苏诗淇</t>
+  </si>
+  <si>
+    <t>石凯峰</t>
+  </si>
+  <si>
+    <t>朱明辉</t>
+  </si>
+  <si>
+    <t>郭一潼</t>
+  </si>
+  <si>
+    <t>刘熙然</t>
+  </si>
+  <si>
+    <t>洪昌宇</t>
+  </si>
+  <si>
+    <t>刘志晟</t>
+  </si>
+  <si>
+    <t>高崇珉</t>
+  </si>
+  <si>
+    <t>王译浛</t>
+  </si>
+  <si>
+    <t>周佳欣</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -72,35 +500,314 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -149,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -182,26 +889,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -234,23 +924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,62 +1065,406 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>score</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>len</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="C3">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>86.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>93.5</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>91.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>91.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>86.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>98.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>96.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>97</v>
+      </c>
+      <c r="C21">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>94</v>
+      </c>
+      <c r="C24">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/special.xlsx
+++ b/special.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15160"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>新建</t>
   </si>
@@ -28,18 +28,99 @@
     <t>性别</t>
   </si>
   <si>
+    <t>张世博</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>李至轩</t>
+  </si>
+  <si>
+    <t>李轩</t>
+  </si>
+  <si>
+    <t>李富阳</t>
+  </si>
+  <si>
+    <t>李欣鑫</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>马雪</t>
+  </si>
+  <si>
+    <t>刘子萌</t>
+  </si>
+  <si>
+    <t>刘雨馨</t>
+  </si>
+  <si>
+    <t>丁玥瑶</t>
+  </si>
+  <si>
+    <t>唐浩然</t>
+  </si>
+  <si>
+    <t>丁力</t>
+  </si>
+  <si>
+    <t>苏诗淇</t>
+  </si>
+  <si>
+    <t>石凯峰</t>
+  </si>
+  <si>
+    <t>朱明辉</t>
+  </si>
+  <si>
+    <t>郭一潼</t>
+  </si>
+  <si>
+    <t>刘熙然</t>
+  </si>
+  <si>
+    <t>洪昌宇</t>
+  </si>
+  <si>
+    <t>刘志晟</t>
+  </si>
+  <si>
+    <t>王泳文</t>
+  </si>
+  <si>
+    <t>王译浛</t>
+  </si>
+  <si>
+    <t>周佳欣</t>
+  </si>
+  <si>
+    <t>许博文</t>
+  </si>
+  <si>
+    <t>杨晶然</t>
+  </si>
+  <si>
+    <t>张平</t>
+  </si>
+  <si>
+    <t>杨艺菲</t>
+  </si>
+  <si>
+    <t>韩孟羲</t>
+  </si>
+  <si>
+    <t>冯鑫博</t>
+  </si>
+  <si>
     <t>宫俊辰</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>韩涵</t>
   </si>
   <si>
-    <t>女</t>
-  </si>
-  <si>
     <t>黄锡泽</t>
   </si>
   <si>
@@ -58,67 +139,13 @@
     <t>杨知让</t>
   </si>
   <si>
-    <t>张世博</t>
-  </si>
-  <si>
-    <t>李至轩</t>
-  </si>
-  <si>
-    <t>李轩</t>
-  </si>
-  <si>
-    <t>李富阳</t>
-  </si>
-  <si>
-    <t>李欣鑫</t>
-  </si>
-  <si>
-    <t>马雪</t>
-  </si>
-  <si>
-    <t>刘子萌</t>
-  </si>
-  <si>
-    <t>刘雨馨</t>
-  </si>
-  <si>
-    <t>丁玥瑶</t>
-  </si>
-  <si>
-    <t>唐浩然</t>
-  </si>
-  <si>
-    <t>丁力</t>
-  </si>
-  <si>
-    <t>苏诗淇</t>
-  </si>
-  <si>
-    <t>石凯峰</t>
-  </si>
-  <si>
-    <t>朱明辉</t>
-  </si>
-  <si>
-    <t>郭一潼</t>
-  </si>
-  <si>
-    <t>刘熙然</t>
-  </si>
-  <si>
-    <t>洪昌宇</t>
-  </si>
-  <si>
-    <t>刘志晟</t>
-  </si>
-  <si>
-    <t>高崇珉</t>
-  </si>
-  <si>
-    <t>王译浛</t>
-  </si>
-  <si>
-    <t>周佳欣</t>
+    <t>范佳欣</t>
+  </si>
+  <si>
+    <t>周峻濠</t>
+  </si>
+  <si>
+    <t>白伊蕊</t>
   </si>
 </sst>
 </file>
@@ -126,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,6 +171,135 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -155,147 +311,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,168 +333,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,12 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +524,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,15 +547,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -561,6 +577,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,160 +624,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -1098,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>86.5</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1112,24 +1139,24 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>64.5</v>
+        <v>88</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>86.5</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1137,30 +1164,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>93.5</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1168,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>91.5</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1182,18 +1209,27 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C8">
-        <v>91.5</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1201,13 +1237,13 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C10">
-        <v>86.5</v>
+        <v>96.5</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1215,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1229,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>94</v>
@@ -1243,13 +1279,13 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C13">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1257,13 +1293,13 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14">
-        <v>98.5</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1274,10 +1310,10 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1285,13 +1321,13 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1299,13 +1335,13 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1313,13 +1349,13 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>96.5</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1327,10 +1363,10 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1341,27 +1377,24 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C20">
-        <v>94</v>
+        <v>91.5</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1369,13 +1402,13 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C22">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1383,13 +1416,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C23">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1397,13 +1430,13 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1411,13 +1444,13 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C25">
-        <v>84</v>
+        <v>91.5</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1425,13 +1458,13 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>88.5</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1439,13 +1472,13 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C27">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1453,14 +1486,158 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>34</v>
+      </c>
+      <c r="B30">
+        <v>64.5</v>
+      </c>
+      <c r="C30">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>81</v>
+      </c>
+      <c r="C31">
+        <v>86.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>93.5</v>
+      </c>
+      <c r="C33">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <v>91.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>91.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>99</v>
+      </c>
+      <c r="C36">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>86.5</v>
+      </c>
+      <c r="C37">
+        <v>95.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>94.5</v>
+      </c>
+      <c r="C39">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/special.xlsx
+++ b/special.xlsx
@@ -142,7 +142,7 @@
     <t>范佳欣</t>
   </si>
   <si>
-    <t>周峻濠</t>
+    <t>周俊豪</t>
   </si>
   <si>
     <t>白伊蕊</t>
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,8 +173,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -189,16 +220,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,7 +243,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -220,29 +252,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,14 +281,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,13 +296,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -294,33 +309,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,187 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,15 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +538,54 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,30 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -597,21 +612,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,148 +627,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelCol="3"/>
